--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1416072.356722438</v>
+        <v>-1419088.156372444</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>406.7971573756476</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>264.6760440799072</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>208.1110812604921</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>17.68532773870698</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>134.708717164533</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>34.6145208673929</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>74.09260911231095</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>115.2373148110768</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>238.4631285907696</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>138.7156593449809</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>23.32897990642519</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.03885654827578</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>216.4638613459952</v>
       </c>
       <c r="W13" t="n">
-        <v>282.6624811674005</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653454</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>43.54171107304271</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>64.09727487032643</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>132.0510373980855</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>160.4944431389993</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>177.3744508986165</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>104.5702261485537</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>22.1069545883392</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,10 +2722,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2767,10 +2767,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>131.7584887394948</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
         <v>124.3308255261727</v>
@@ -2959,16 +2959,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541844</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,10 +3013,10 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600553</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3187,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261727</v>
@@ -3196,16 +3196,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>618.3948626148824</v>
+        <v>1957.780595683986</v>
       </c>
       <c r="C2" t="n">
-        <v>618.3948626148824</v>
+        <v>1588.818078743575</v>
       </c>
       <c r="D2" t="n">
-        <v>618.3948626148824</v>
+        <v>1588.818078743575</v>
       </c>
       <c r="E2" t="n">
-        <v>618.3948626148824</v>
+        <v>1203.02982614533</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>792.0439213557229</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>1395.134034654816</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y2" t="n">
-        <v>1004.994702679004</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4419,19 +4419,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.7691122461817</v>
+        <v>680.848097647221</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>680.848097647221</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>530.7314582348853</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>369.7691122461817</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>369.7691122461817</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>369.7691122461817</v>
+        <v>680.848097647221</v>
       </c>
       <c r="W4" t="n">
-        <v>369.7691122461817</v>
+        <v>680.848097647221</v>
       </c>
       <c r="X4" t="n">
-        <v>369.7691122461817</v>
+        <v>680.848097647221</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.7691122461817</v>
+        <v>680.848097647221</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1498.518225097183</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="C5" t="n">
-        <v>1498.518225097183</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>1140.252526490433</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>754.4642738921884</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>343.4783691025809</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2662.184928525906</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2662.184928525906</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990286</v>
+        <v>2443.550261497969</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2443.550261497969</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>2443.550261497969</v>
       </c>
       <c r="W5" t="n">
-        <v>1871.983983358263</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="X5" t="n">
-        <v>1498.518225097183</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="Y5" t="n">
-        <v>1498.518225097183</v>
+        <v>2090.781606227855</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>128.784001125729</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931989</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931989</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931989</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>286.5323736931989</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X7" t="n">
-        <v>286.5323736931989</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="Y7" t="n">
-        <v>286.5323736931989</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.515311311824</v>
+        <v>1391.97203927339</v>
       </c>
       <c r="C8" t="n">
-        <v>1509.552794371413</v>
+        <v>1023.009522332978</v>
       </c>
       <c r="D8" t="n">
-        <v>1509.552794371413</v>
+        <v>1023.009522332978</v>
       </c>
       <c r="E8" t="n">
-        <v>1123.764541773169</v>
+        <v>1023.009522332978</v>
       </c>
       <c r="F8" t="n">
-        <v>712.778636983561</v>
+        <v>612.0236175433704</v>
       </c>
       <c r="G8" t="n">
-        <v>294.8148288817479</v>
+        <v>194.0598094415573</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>194.0598094415573</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1391.97203927339</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,19 +4884,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629043</v>
+        <v>77.50760798847071</v>
       </c>
       <c r="C10" t="n">
-        <v>507.3364050629043</v>
+        <v>77.50760798847071</v>
       </c>
       <c r="D10" t="n">
-        <v>507.3364050629043</v>
+        <v>77.50760798847071</v>
       </c>
       <c r="E10" t="n">
-        <v>359.4233114805112</v>
+        <v>77.50760798847071</v>
       </c>
       <c r="F10" t="n">
-        <v>212.5333639826008</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>212.5333639826008</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>212.5333639826008</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>76.20445308124908</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>259.1560728187104</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>259.1560728187104</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>259.1560728187104</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629043</v>
+        <v>259.1560728187104</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5024,7 +5024,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
@@ -5033,31 +5033,31 @@
         <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>786.6724891157196</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364128</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2816.030799058633</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5118,13 +5118,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>529.525731183237</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C13" t="n">
-        <v>360.5895482553301</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D13" t="n">
-        <v>360.5895482553301</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E13" t="n">
-        <v>360.5895482553301</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5233,16 +5233,16 @@
         <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1445.473983799873</v>
+        <v>1226.823618803918</v>
       </c>
       <c r="W13" t="n">
-        <v>1159.956326055024</v>
+        <v>937.4064487669579</v>
       </c>
       <c r="X13" t="n">
-        <v>931.9667751570069</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="Y13" t="n">
-        <v>711.1741960134767</v>
+        <v>709.4168978689405</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5346,22 +5346,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>655.9531749224913</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="C16" t="n">
-        <v>487.0169919945844</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>487.0169919945844</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5461,25 +5461,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1891.598744013465</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1891.598744013465</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1602.495877139109</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1347.811388933222</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>1058.394218896261</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>1058.394218896261</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y16" t="n">
-        <v>837.601639752731</v>
+        <v>488.8938622403219</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5729,19 +5729,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,7 +5750,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>351.301436796792</v>
       </c>
       <c r="K20" t="n">
         <v>685.1208104866384</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1010.504620754914</v>
+        <v>806.069814334827</v>
       </c>
       <c r="C22" t="n">
-        <v>841.5684378270072</v>
+        <v>637.1336314069201</v>
       </c>
       <c r="D22" t="n">
-        <v>691.4517984146714</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="E22" t="n">
-        <v>543.5387048322783</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F22" t="n">
-        <v>396.6487573343679</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G22" t="n">
-        <v>228.9459207090869</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689058</v>
+        <v>1794.227866974401</v>
       </c>
       <c r="U22" t="n">
-        <v>1674.827124689058</v>
+        <v>1505.125000100045</v>
       </c>
       <c r="V22" t="n">
-        <v>1420.142636483171</v>
+        <v>1505.125000100045</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.142636483171</v>
+        <v>1215.707830063084</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.153085585154</v>
+        <v>987.7182791650667</v>
       </c>
       <c r="Y22" t="n">
-        <v>1192.153085585154</v>
+        <v>987.7182791650667</v>
       </c>
     </row>
     <row r="23">
@@ -5987,22 +5987,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1069.293752345675</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M23" t="n">
-        <v>1622.42518767663</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903276</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P23" t="n">
         <v>4195.497197679677</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,19 +6066,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.5269503710301</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C25" t="n">
-        <v>393.5907674431232</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D25" t="n">
-        <v>243.4741280307875</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U25" t="n">
-        <v>1555.410738655425</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>1300.726250449538</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="W25" t="n">
-        <v>1011.309080412578</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X25" t="n">
-        <v>783.3195295145603</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y25" t="n">
-        <v>562.5269503710301</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="26">
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,13 +6312,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951537</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.9745311434716</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,31 +6382,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6415,19 +6415,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.405126015259</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.415575117241</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.622995973711</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6458,31 +6458,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6543,16 +6543,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190824</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6619,7 +6619,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
         <v>483.825546038073</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517213</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
         <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,25 +6856,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,19 +6932,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6953,10 +6953,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7017,16 +7017,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O36" t="n">
         <v>1896.176478190824</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
         <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7102,16 +7102,16 @@
         <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7254,16 +7254,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951537</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O39" t="n">
         <v>1896.176478190824</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311328</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,7 +7406,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
@@ -7415,13 +7415,13 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7497,16 +7497,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190824</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,43 +7801,43 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380732</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>170.1140909277306</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>314.5564971416986</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="K20" t="n">
-        <v>67.53663776704252</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9635,25 +9635,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>19.79750571619206</v>
+        <v>248.8400772687164</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>-7.199131888556365e-14</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-7.199131888556365e-14</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>345.744889689219</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>6.987012645147388</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>105.0550565985619</v>
+        <v>196.3067493670474</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004545</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>35.67378197783279</v>
       </c>
       <c r="W13" t="n">
-        <v>3.86051716919053</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>123.7051100255851</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>125.6717504611155</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>12.70397751623526</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>59.05450613716985</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>108.8373873069963</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>147.5674171752743</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>145.1398665102886</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>120.3791545843332</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-1.298961066497191e-13</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26329,7 +26329,7 @@
         <v>138978.6254104441</v>
       </c>
       <c r="H2" t="n">
-        <v>138978.625410444</v>
+        <v>138978.6254104441</v>
       </c>
       <c r="I2" t="n">
         <v>138978.6254104441</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>376527.1335735916</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363173</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="G4" t="n">
         <v>21619.60799709185</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>4457.648636658129</v>
+        <v>4457.648636658142</v>
       </c>
       <c r="K4" t="n">
         <v>12448.50789975157</v>
       </c>
       <c r="L4" t="n">
-        <v>12448.50789975156</v>
+        <v>12448.50789975157</v>
       </c>
       <c r="M4" t="n">
-        <v>12448.50789975158</v>
+        <v>12448.50789975157</v>
       </c>
       <c r="N4" t="n">
         <v>12448.50789975158</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975161</v>
+        <v>12448.50789975158</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975161</v>
+        <v>12448.50789975157</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26488,7 +26488,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-684539.6632369095</v>
+        <v>-684772.1963541124</v>
       </c>
       <c r="C6" t="n">
-        <v>-131383.3647295894</v>
+        <v>-131383.3647295895</v>
       </c>
       <c r="D6" t="n">
         <v>-131383.3647295894</v>
       </c>
       <c r="E6" t="n">
-        <v>-706401.9148337679</v>
+        <v>-706469.1103239937</v>
       </c>
       <c r="F6" t="n">
-        <v>20975.49915963854</v>
+        <v>20908.30366941277</v>
       </c>
       <c r="G6" t="n">
-        <v>20975.4991596386</v>
+        <v>20908.30366941277</v>
       </c>
       <c r="H6" t="n">
-        <v>20975.49915963854</v>
+        <v>20908.30366941276</v>
       </c>
       <c r="I6" t="n">
-        <v>20975.49915963858</v>
+        <v>20908.30366941277</v>
       </c>
       <c r="J6" t="n">
-        <v>-340856.6570884057</v>
+        <v>-340891.3950138415</v>
       </c>
       <c r="K6" t="n">
-        <v>8641.967978950925</v>
+        <v>8641.967978950997</v>
       </c>
       <c r="L6" t="n">
-        <v>28069.68597258274</v>
+        <v>28069.68597258272</v>
       </c>
       <c r="M6" t="n">
-        <v>-101572.6288663621</v>
+        <v>-101572.628866362</v>
       </c>
       <c r="N6" t="n">
-        <v>28069.68597258265</v>
+        <v>28069.68597258269</v>
       </c>
       <c r="O6" t="n">
-        <v>28069.68597258261</v>
+        <v>28069.68597258267</v>
       </c>
       <c r="P6" t="n">
-        <v>8641.967978950837</v>
+        <v>8641.967978950968</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203969</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203966</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>36.18548038304277</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>173.4243513114217</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>16.92402419759216</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>234.452315585121</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>279.075452856262</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>19.86388170741883</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>60.87301268002727</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>103.347338541018</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>85.45964417358758</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>13.21565689988034</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>122.0920681165061</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>23.16110264026122</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-4.050093593832571e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4300581532619</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33214,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33263,22 +33263,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>370.9642309107737</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
@@ -33287,7 +33287,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33354,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33451,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33500,31 +33500,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>303.4297552732299</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33591,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33688,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33737,22 +33737,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>416.4300581532615</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
@@ -33761,7 +33761,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33828,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33925,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33974,22 +33974,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532615</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
@@ -33998,7 +33998,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34065,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34217,19 +34217,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>359.7096985496632</v>
+        <v>641.2555750770849</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>507.3053774831311</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>853.4776129719254</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>258.3236387357551</v>
       </c>
       <c r="K20" t="n">
-        <v>404.727924322443</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>558.7186215464188</v>
+        <v>787.761193098943</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2960242312436</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>228.3679864663293</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
@@ -36999,7 +36999,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980852</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>160.8335108287855</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>274.2960242312432</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
@@ -37470,19 +37470,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312432</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37783,7 +37783,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
         <v>735.300110790295</v>
@@ -37865,19 +37865,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>228.3679864663299</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
